--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-registration.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-registration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-registration.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-registration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-registration.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-registration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-registration.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-registration.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la première inscription si "isFirst = true".</t>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour prise en compte de la première inscription si "isFirst = true". Ces données sont uniquement accessibles en accès restreint.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -322,9 +322,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:registeringOrganization</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
     <t>Extension.url</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.extension:registeringOrganization.value[x]</t>
   </si>
   <si>
@@ -486,8 +486,8 @@
     <t>Period.start</t>
   </si>
   <si>
-    <t>ele-1
-per-1</t>
+    <t xml:space="preserve">per-1
+</t>
   </si>
   <si>
     <t>./low</t>
@@ -1365,24 +1365,24 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -1407,10 +1407,10 @@
         <v>92</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1470,7 +1470,7 @@
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>82</v>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1616,7 +1616,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1676,7 +1676,7 @@
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>82</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1713,16 +1713,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1772,22 +1772,22 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1882,13 +1882,13 @@
         <v>84</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -1927,7 +1927,7 @@
         <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1987,7 +1987,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>82</v>
@@ -2001,7 +2001,7 @@
         <v>128</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2104,7 +2104,7 @@
         <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2133,7 +2133,7 @@
         <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2193,7 +2193,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>82</v>
@@ -2207,7 +2207,7 @@
         <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2230,16 +2230,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2289,22 +2289,22 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -2399,13 +2399,13 @@
         <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -2444,7 +2444,7 @@
         <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2504,7 +2504,7 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>82</v>
@@ -2518,7 +2518,7 @@
         <v>136</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2621,7 +2621,7 @@
         <v>137</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2650,7 +2650,7 @@
         <v>30</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2710,7 +2710,7 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>82</v>
@@ -2724,7 +2724,7 @@
         <v>138</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2747,16 +2747,16 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2806,22 +2806,22 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -2918,13 +2918,13 @@
         <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
@@ -3126,13 +3126,13 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -3383,7 +3383,7 @@
         <v>165</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3443,7 +3443,7 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -3457,7 +3457,7 @@
         <v>166</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3560,7 +3560,7 @@
         <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3589,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3649,7 +3649,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>82</v>
@@ -3663,7 +3663,7 @@
         <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3686,16 +3686,16 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3745,22 +3745,22 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -3855,13 +3855,13 @@
         <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -3900,7 +3900,7 @@
         <v>173</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3960,7 +3960,7 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>82</v>
@@ -3974,7 +3974,7 @@
         <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4077,7 +4077,7 @@
         <v>175</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4106,7 +4106,7 @@
         <v>30</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4166,7 +4166,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>82</v>
@@ -4180,7 +4180,7 @@
         <v>176</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4203,16 +4203,16 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4262,22 +4262,22 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -4372,13 +4372,13 @@
         <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -4417,7 +4417,7 @@
         <v>180</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4477,7 +4477,7 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -4491,7 +4491,7 @@
         <v>181</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4594,7 +4594,7 @@
         <v>182</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4623,7 +4623,7 @@
         <v>30</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4683,7 +4683,7 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>82</v>
@@ -4697,7 +4697,7 @@
         <v>183</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4720,16 +4720,16 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -4779,22 +4779,22 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -4891,21 +4891,21 @@
         <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4928,16 +4928,16 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -4987,22 +4987,22 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -5099,13 +5099,13 @@
         <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
